--- a/src/main/resources/xlsx/analysis/stat_party_bks_info.xlsx
+++ b/src/main/resources/xlsx/analysis/stat_party_bks_info.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <r>
       <rPr>
@@ -131,52 +131,12 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="15.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>school</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="15.5"/>
-        <rFont val="华文中宋"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">各二级党组织本科生队伍党员信息分析
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（数据源自</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>date</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年统数据）</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>（数据源自year年month月年统数据）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>school各二级党组织本科生队伍党员信息分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -196,12 +156,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15.5"/>
-      <name val="华文中宋"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -209,21 +163,31 @@
     </font>
     <font>
       <b/>
-      <sz val="15.5"/>
+      <sz val="16"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="8.5"/>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -266,21 +230,21 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -590,7 +554,7 @@
   <dimension ref="A1:L147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -604,69 +568,71 @@
     <col min="12" max="12" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
     </row>
-    <row r="2" spans="1:12" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:12" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -812,13 +778,14 @@
     <row r="145" spans="12:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="146" spans="12:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="147" spans="12:12" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L147" s="4"/>
+      <c r="L147" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:K2"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
